--- a/kicad_arduino_LCD/部品表.xlsx
+++ b/kicad_arduino_LCD/部品表.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kicad\kicad_arduino_LCD\kicad_arduino_LCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3C472207-B986-4F30-BF5E-33FD5F04E218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7715EA8A-7EE7-4343-B714-32ABBA97C22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="部品表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t xml:space="preserve">C1 C2 C3 C4 </t>
   </si>
@@ -49,9 +58,6 @@
     <t xml:space="preserve">R1 R2 </t>
   </si>
   <si>
-    <t xml:space="preserve">R3 R4 R5 R11 R12 R13 R14 </t>
-  </si>
-  <si>
     <t xml:space="preserve">R6 </t>
   </si>
   <si>
@@ -68,9 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">U2 </t>
-  </si>
-  <si>
-    <t>AE-PCA9306</t>
   </si>
   <si>
     <t xml:space="preserve">Y1 </t>
@@ -381,23 +384,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>社内在庫なし、J2、J3はオープン状態にする</t>
-    <rPh sb="0" eb="4">
-      <t>シャナイザイコ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>社内在庫なし</t>
-    <rPh sb="0" eb="4">
-      <t>シャナイザイコ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>必要ピン数を切り取って実装</t>
     <rPh sb="0" eb="2">
       <t>ヒツヨウ</t>
@@ -414,13 +400,28 @@
     <rPh sb="11" eb="13">
       <t>ジッソウ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AE-PCA9306から変更、OEピンをhighにすること</t>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AE-FXMA2102</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R3 R4 R5 R11 R12 R13 R14 R15 R16 R17</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1437,17 +1438,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I17" sqref="F17:I18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="3.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.90625" bestFit="1" customWidth="1"/>
@@ -1456,41 +1457,41 @@
     <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.36328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="45.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.5">
@@ -1504,17 +1505,17 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I2" s="2">
         <v>2</v>
@@ -1525,18 +1526,18 @@
       </c>
       <c r="K2" s="2"/>
       <c r="M2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N2">
         <f>SUM(C:C)</f>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q2">
         <f>SUM(J2:J16)</f>
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
@@ -1550,14 +1551,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3">
@@ -1569,18 +1570,18 @@
       </c>
       <c r="K3" s="3"/>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N3">
         <f>SUMIF(G2:G16,"=SMD",C2:C16)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q3">
         <f>SUMIF(G2:G16,"=SMD",J2:J16)</f>
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.5">
@@ -1594,16 +1595,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3">
@@ -1613,18 +1614,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="K4" s="3"/>
       <c r="M4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <f>SUMIF(G2:G16,"=DIP",C2:C16)</f>
         <v>13</v>
       </c>
       <c r="P4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q4">
         <f>SUMIF(G2:G16,"=DIP",J2:J16)</f>
@@ -1642,14 +1641,14 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
@@ -1660,7 +1659,7 @@
         <v>8</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.5">
@@ -1674,14 +1673,14 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
@@ -1692,7 +1691,7 @@
         <v>6</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.5">
@@ -1706,14 +1705,14 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3">
@@ -1724,7 +1723,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.5">
@@ -1738,14 +1737,14 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3">
@@ -1756,7 +1755,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.5">
@@ -1770,17 +1769,17 @@
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I9" s="3">
         <v>2</v>
@@ -1796,30 +1795,30 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="C10" s="3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I10" s="3">
         <v>2</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -1828,23 +1827,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I11" s="3">
         <v>2</v>
@@ -1860,23 +1859,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I12" s="3">
         <v>2</v>
@@ -1892,20 +1891,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3">
@@ -1922,25 +1921,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="3">
         <v>8</v>
@@ -1950,7 +1949,7 @@
         <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.5">
@@ -1958,25 +1957,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I15" s="3">
         <v>8</v>
@@ -1986,7 +1985,7 @@
         <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.5">
@@ -1994,22 +1993,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="4">
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4">
@@ -2019,9 +2018,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="K16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>

--- a/kicad_arduino_LCD/部品表.xlsx
+++ b/kicad_arduino_LCD/部品表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kicad\kicad_arduino_LCD\kicad_arduino_LCD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7715EA8A-7EE7-4343-B714-32ABBA97C22F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACAA32B-28F2-4D7B-8B1E-43BD6F79C53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">LCD1 </t>
   </si>
   <si>
-    <t>AQM0802A-RN-GBW</t>
-  </si>
-  <si>
     <t xml:space="preserve">P1 </t>
   </si>
   <si>
@@ -239,10 +236,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>VT-200-F 32.768kHz</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Xiamen Zettler Electronics Co., Ltd.</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -265,10 +258,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>エイブリック</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>アナログデバイセズ</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -415,6 +404,30 @@
   </si>
   <si>
     <t>R3 R4 R5 R11 R12 R13 R14 R15 R16 R17</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>AQM0802A-RN-GBW</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>NC38 32.768kHz</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>VT-200-F 32.768kHzから変更、社内在庫品</t>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒン</t>
+    </rPh>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1068,7 +1081,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1081,7 +1094,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1442,7 +1458,7 @@
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.3" x14ac:dyDescent="0.5"/>
@@ -1464,34 +1480,34 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.5">
@@ -1505,17 +1521,17 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I2" s="2">
         <v>2</v>
@@ -1526,14 +1542,14 @@
       </c>
       <c r="K2" s="2"/>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="N2">
         <f>SUM(C:C)</f>
         <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q2">
         <f>SUM(J2:J16)</f>
@@ -1551,14 +1567,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3">
@@ -1570,14 +1586,14 @@
       </c>
       <c r="K3" s="3"/>
       <c r="M3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <f>SUMIF(G2:G16,"=SMD",C2:C16)</f>
         <v>21</v>
       </c>
       <c r="P3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q3">
         <f>SUMIF(G2:G16,"=SMD",J2:J16)</f>
@@ -1588,42 +1604,42 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="D4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4">
         <v>9</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="4"/>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <f>SUMIF(G2:G16,"=DIP",C2:C16)</f>
         <v>13</v>
       </c>
       <c r="P4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q4">
         <f>SUMIF(G2:G16,"=DIP",J2:J16)</f>
@@ -1635,20 +1651,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
@@ -1659,7 +1675,7 @@
         <v>8</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.5">
@@ -1667,20 +1683,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
@@ -1691,7 +1707,7 @@
         <v>6</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.5">
@@ -1699,20 +1715,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3">
@@ -1723,7 +1739,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.5">
@@ -1731,20 +1747,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3">
@@ -1755,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.5">
@@ -1763,23 +1779,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I9" s="3">
         <v>2</v>
@@ -1795,23 +1811,23 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" s="3">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I10" s="3">
         <v>2</v>
@@ -1827,23 +1843,23 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I11" s="3">
         <v>2</v>
@@ -1859,23 +1875,23 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3">
         <v>4</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I12" s="3">
         <v>2</v>
@@ -1891,20 +1907,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3">
@@ -1920,105 +1936,105 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="4">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>63</v>
+      <c r="K14" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4">
         <v>1</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="4">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>65</v>
+      <c r="K15" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4">
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5">
         <v>2</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
